--- a/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 6,51</t>
+          <t>-0,82; 6,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,28; 14,01</t>
+          <t>3,37; 14,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 1,07</t>
+          <t>-4,57; 0,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,24; 288,8</t>
+          <t>-27,51; 295,05</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,67; 262,95</t>
+          <t>34,49; 279,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,1; 50,84</t>
+          <t>-71,97; 45,83</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 4,29</t>
+          <t>-0,75; 4,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,83</t>
+          <t>0,01; 5,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,88</t>
+          <t>3,67; 10,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 5,09</t>
+          <t>-0,64; 5,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 154,96</t>
+          <t>-18,48; 174,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 339,44</t>
+          <t>-7,83; 325,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,69; 452,02</t>
+          <t>76,45; 437,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-13,42; 174,01</t>
+          <t>-14,86; 160,29</t>
         </is>
       </c>
     </row>
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,96</t>
+          <t>-0,61; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 1,78</t>
+          <t>-2,73; 1,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,71; 11,39</t>
+          <t>3,96; 11,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 5,72</t>
+          <t>-0,89; 5,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-79,16; 143,11</t>
+          <t>-80,56; 132,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>82,7; 1100,83</t>
+          <t>104,17; 1219,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-17,25; 267,4</t>
+          <t>-19,83; 265,06</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 4,6</t>
+          <t>-0,34; 4,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 7,19</t>
+          <t>2,43; 7,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,23; 7,33</t>
+          <t>0,21; 7,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,53</t>
+          <t>-5,48; 2,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,05; 504,88</t>
+          <t>-21,84; 467,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,09; 373,5</t>
+          <t>60,33; 347,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,34; 233,03</t>
+          <t>-1,5; 223,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-57,5; 69,18</t>
+          <t>-58,77; 68,42</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 7,96</t>
+          <t>-1,25; 8,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 10,9</t>
+          <t>-1,81; 10,71</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 12,46</t>
+          <t>0,82; 12,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,3</t>
+          <t>-0,54; 3,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 347,39</t>
+          <t>-28,27; 369,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 166,84</t>
+          <t>-15,1; 158,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,4; 253,44</t>
+          <t>2,63; 250,79</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,7; 867,68</t>
+          <t>-35,65; 1143,47</t>
         </is>
       </c>
     </row>
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,02</t>
+          <t>-0,35; 4,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 5,87</t>
+          <t>1,38; 6,07</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,57; 12,58</t>
+          <t>2,95; 13,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 2,92</t>
+          <t>-2,89; 2,59</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,63; 984,13</t>
+          <t>-36,49; 921,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,12 +1198,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,7; 461,75</t>
+          <t>36,01; 464,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-46,18; 117,68</t>
+          <t>-52,55; 105,03</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,08; 3,36</t>
+          <t>0,05; 3,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 1,25</t>
+          <t>-2,28; 1,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 9,81</t>
+          <t>3,96; 9,85</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,8; 47,27</t>
+          <t>0,38; 42,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 280,7</t>
+          <t>-3,39; 299,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 68,76</t>
+          <t>-62,09; 71,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>69,91; 325,33</t>
+          <t>65,8; 315,7</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>9,99; 1164,28</t>
+          <t>5,81; 967,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 3,7</t>
+          <t>-0,97; 3,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,39</t>
+          <t>-1,46; 2,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,23; 8,56</t>
+          <t>3,5; 8,65</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 4,42</t>
+          <t>-1,63; 4,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 121,22</t>
+          <t>-20,77; 119,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 114,51</t>
+          <t>-36,46; 101,98</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>51,02; 235,73</t>
+          <t>59,72; 235,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-14,81; 52,39</t>
+          <t>-12,68; 54,67</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 2,73</t>
+          <t>0,94; 2,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,8</t>
+          <t>0,95; 2,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,76</t>
+          <t>5,11; 7,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,6; 13,02</t>
+          <t>0,67; 13,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,98; 117,4</t>
+          <t>29,92; 119,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>24,95; 104,27</t>
+          <t>26,41; 108,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>100,32; 190,45</t>
+          <t>101,07; 195,68</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 225,91</t>
+          <t>9,67; 224,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,42</t>
+          <t>-1,26</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-35,19%</t>
+          <t>-34,65%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 7,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 0,92</t>
+          <t>-4,5; 0,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,68; 355,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,97; 45,83</t>
+          <t>-71,5; 58,03</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,41</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>142,51%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 5,13</t>
+          <t>1,42; 5,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-14,86; 160,29</t>
+          <t>34,57; 367,34</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>45,54%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 5,53</t>
+          <t>-2,2; 4,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 265,06</t>
+          <t>-39,65; 203,34</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,79</t>
+          <t>6,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-2,18</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>165,78%</t>
+          <t>255,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-13,62%</t>
+          <t>-38,08%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,29</t>
+          <t>3,3; 9,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 2,43</t>
+          <t>-6,57; 0,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,33; 347,77</t>
+          <t>78,91; 661,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,77; 68,42</t>
+          <t>-75,06; 30,58</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>127,4%</t>
+          <t>107,49%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,35</t>
+          <t>-0,89; 3,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-35,65; 1143,47</t>
+          <t>-44,75; 886,75</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-0,91%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 2,59</t>
+          <t>-3,07; 2,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,55; 105,03</t>
+          <t>-52,31; 94,33</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,18</t>
+          <t>23,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>253,75%</t>
+          <t>483,7%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 42,8</t>
+          <t>0,38; 59,73</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,81; 967,95</t>
+          <t>5,35; 1924,89</t>
         </is>
       </c>
     </row>
@@ -1335,12 +1335,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>35,71%</t>
+          <t>34,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>136,74%</t>
         </is>
       </c>
     </row>
@@ -1368,7 +1368,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 3,78</t>
+          <t>-0,98; 3,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1383,12 +1383,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,83</t>
+          <t>1,0; 4,42</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,77; 119,05</t>
+          <t>-18,65; 117,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 54,67</t>
+          <t>32,91; 541,09</t>
         </is>
       </c>
     </row>
@@ -1435,12 +1435,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>66,06%</t>
+          <t>65,25%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>60,02%</t>
+          <t>199,66%</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,82</t>
+          <t>0,94; 2,79</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1483,12 +1483,12 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 13,16</t>
+          <t>0,92; 22,73</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,92; 119,21</t>
+          <t>28,71; 116,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,67; 224,83</t>
+          <t>27,07; 857,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2A_ner_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,82</t>
+          <t>-0,97; 6,85</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 7,15</t>
+          <t>-0,82; 6,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,37; 14,59</t>
+          <t>3,19; 14,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,98</t>
+          <t>-4,16; 0,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 295,05</t>
+          <t>-21,67; 339,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 355,04</t>
+          <t>-21,01; 307,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,49; 279,52</t>
+          <t>29,44; 280,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-71,5; 58,03</t>
+          <t>-72,95; 52,52</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,63</t>
+          <t>-0,98; 4,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,01; 5,68</t>
+          <t>0,44; 5,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 10,23</t>
+          <t>3,87; 10,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,66</t>
+          <t>1,19; 5,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,48; 174,12</t>
+          <t>-22,23; 174,51</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 325,9</t>
+          <t>-1,49; 298,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,45; 437,0</t>
+          <t>80,86; 463,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,57; 367,34</t>
+          <t>23,3; 390,94</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,22 +868,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,73</t>
+          <t>-0,6; 1,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 1,59</t>
+          <t>-2,82; 1,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 11,14</t>
+          <t>4,24; 11,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 4,1</t>
+          <t>-1,84; 4,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,17 +893,17 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-80,56; 132,94</t>
+          <t>-76,73; 129,91</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>104,17; 1219,3</t>
+          <t>109,9; 1401,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 203,34</t>
+          <t>-38,67; 191,4</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 4,72</t>
+          <t>-0,32; 4,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,3; 9,65</t>
+          <t>3,28; 9,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 7,47</t>
+          <t>0,14; 7,59</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 0,96</t>
+          <t>-6,42; 0,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 467,27</t>
+          <t>-23,03; 453,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>78,91; 661,84</t>
+          <t>71,8; 677,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 223,31</t>
+          <t>-0,87; 249,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,06; 30,58</t>
+          <t>-73,52; 24,46</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 8,01</t>
+          <t>-1,12; 7,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 10,71</t>
+          <t>-2,26; 10,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,82; 12,76</t>
+          <t>0,52; 12,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,06</t>
+          <t>-0,98; 2,86</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-28,27; 369,36</t>
+          <t>-31,07; 280,95</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 158,3</t>
+          <t>-19,86; 162,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 250,79</t>
+          <t>3,61; 235,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,75; 886,75</t>
+          <t>-46,87; 741,08</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,27 +1168,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 4,98</t>
+          <t>-0,39; 5,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,38; 6,07</t>
+          <t>1,15; 5,74</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,95; 13,03</t>
+          <t>3,33; 12,78</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 2,44</t>
+          <t>-2,83; 2,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 921,82</t>
+          <t>-41,86; 816,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1198,19 +1198,19 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,01; 464,71</t>
+          <t>52,43; 464,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 94,33</t>
+          <t>-53,6; 108,43</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,05; 3,43</t>
+          <t>0,11; 3,66</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 1,24</t>
+          <t>-2,22; 1,22</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,85</t>
+          <t>4,03; 10,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,38; 59,73</t>
+          <t>0,45; 55,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 299,54</t>
+          <t>-0,68; 317,96</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-62,09; 71,36</t>
+          <t>-61,48; 66,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>65,8; 315,7</t>
+          <t>75,41; 346,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,35; 1924,89</t>
+          <t>9,62; 1894,86</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 3,74</t>
+          <t>-0,79; 3,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 2,28</t>
+          <t>-1,51; 2,37</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,5; 8,65</t>
+          <t>3,38; 8,85</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,0; 4,42</t>
+          <t>0,99; 4,37</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 117,54</t>
+          <t>-16,45; 111,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 101,98</t>
+          <t>-34,85; 109,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>59,72; 235,65</t>
+          <t>54,68; 245,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,91; 541,09</t>
+          <t>33,16; 480,0</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,94; 2,79</t>
+          <t>0,8; 2,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,95; 2,86</t>
+          <t>0,98; 2,93</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,11; 7,78</t>
+          <t>5,18; 7,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,92; 22,73</t>
+          <t>0,88; 23,61</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,71; 116,58</t>
+          <t>24,12; 112,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>26,41; 108,82</t>
+          <t>26,38; 109,49</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>101,07; 195,68</t>
+          <t>102,14; 197,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,07; 857,9</t>
+          <t>24,67; 863,0</t>
         </is>
       </c>
     </row>
